--- a/data/Annual GDP Per Capita OECD and Non-OECD.xlsx.xlsx
+++ b/data/Annual GDP Per Capita OECD and Non-OECD.xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiwonlee/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91730885-8BAE-BA49-B064-1C1CD45F32F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895881ED-5BC3-5B4C-8A1A-A44FFD930985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="1100" windowWidth="21800" windowHeight="18020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="18440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -708,7 +708,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="78">
   <si>
     <t>Annual GDP and consumption per capita, US $, current prices, current PPPs</t>
   </si>
@@ -957,7 +957,7 @@
     <numFmt numFmtId="166" formatCode="\P\ \ \ #,##0.0;\P\ \ \ \-#,##0.0"/>
     <numFmt numFmtId="167" formatCode="\B\ \ \ #,##0.0;\B\ \ \ \-#,##0.0"/>
   </numFmts>
-  <fonts count="422" x14ac:knownFonts="1">
+  <fonts count="421" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -978,51 +978,51 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1034,2062 +1034,2061 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -3100,12 +3099,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF4182D5"/>
@@ -3190,17 +3183,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="436">
+  <fills count="435">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0549AB"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -11969,36 +11957,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -12101,6 +12059,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -12109,1307 +12093,1309 @@
   </cellStyleXfs>
   <cellXfs count="435">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="21" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="22" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="23" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="24" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="25" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="26" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="27" fillId="27" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="21" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="22" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="23" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="24" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="25" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="26" fillId="26" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="29" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="30" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="31" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="32" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="33" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="34" fillId="34" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="35" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="36" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="28" fillId="28" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="29" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="30" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="31" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="32" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="33" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="34" fillId="34" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="37" fillId="37" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="38" fillId="38" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="39" fillId="39" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="40" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="41" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="42" fillId="42" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="43" fillId="43" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="44" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="36" fillId="36" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="37" fillId="37" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="38" fillId="38" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="39" fillId="39" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="40" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="41" fillId="41" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="42" fillId="42" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="43" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="45" fillId="45" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="46" fillId="46" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="47" fillId="47" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="48" fillId="48" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="49" fillId="49" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="50" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="51" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="52" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="44" fillId="44" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="45" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="46" fillId="46" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="47" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="48" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="49" fillId="49" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="50" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="51" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="53" fillId="53" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="54" fillId="54" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="55" fillId="55" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="56" fillId="56" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="57" fillId="57" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="58" fillId="58" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="59" fillId="59" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="60" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="52" fillId="52" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="53" fillId="53" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="54" fillId="54" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="55" fillId="55" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="56" fillId="56" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="57" fillId="57" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="58" fillId="58" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="59" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="61" fillId="61" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="62" fillId="62" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="63" fillId="63" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="64" fillId="64" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="65" fillId="65" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="66" fillId="66" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="67" fillId="67" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="68" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="60" fillId="60" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="61" fillId="61" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="62" fillId="62" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="63" fillId="63" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="64" fillId="64" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="65" fillId="65" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="66" fillId="66" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="67" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="69" fillId="69" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="70" fillId="70" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="71" fillId="71" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="72" fillId="72" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="73" fillId="73" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="74" fillId="74" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="75" fillId="75" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="76" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="68" fillId="68" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="69" fillId="69" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="70" fillId="70" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="71" fillId="71" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="72" fillId="72" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="73" fillId="73" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="74" fillId="74" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="75" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="77" fillId="77" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="78" fillId="78" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="79" fillId="79" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="80" fillId="80" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="81" fillId="81" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="82" fillId="82" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="83" fillId="83" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="84" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="76" fillId="76" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="77" fillId="77" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="78" fillId="78" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="79" fillId="79" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="80" fillId="80" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="81" fillId="81" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="82" fillId="82" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="83" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="85" fillId="85" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="86" fillId="86" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="87" fillId="87" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="88" fillId="88" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="89" fillId="89" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="90" fillId="90" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="91" fillId="91" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="92" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="84" fillId="84" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="85" fillId="85" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="86" fillId="86" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="87" fillId="87" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="88" fillId="88" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="89" fillId="89" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="90" fillId="90" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="91" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="93" fillId="93" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="94" fillId="94" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="95" fillId="95" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="96" fillId="96" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="97" fillId="97" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="98" fillId="98" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="99" fillId="99" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="100" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="92" fillId="92" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="93" fillId="93" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="94" fillId="94" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="95" fillId="95" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="96" fillId="96" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="97" fillId="97" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="98" fillId="98" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="99" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="101" fillId="101" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="102" fillId="102" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="103" fillId="103" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="104" fillId="104" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="105" fillId="105" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="106" fillId="106" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="107" fillId="107" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="108" fillId="108" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="100" fillId="100" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="101" fillId="101" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="102" fillId="102" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="103" fillId="103" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="104" fillId="104" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="105" fillId="105" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="106" fillId="106" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="107" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="109" fillId="109" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="110" fillId="110" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="111" fillId="111" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="112" fillId="112" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="113" fillId="113" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="114" fillId="114" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="115" fillId="115" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="116" fillId="116" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="108" fillId="108" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="109" fillId="109" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="110" fillId="110" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="111" fillId="111" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="112" fillId="112" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="113" fillId="113" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="114" fillId="114" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="115" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="117" fillId="117" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="118" fillId="118" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="119" fillId="119" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="120" fillId="120" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="121" fillId="121" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="122" fillId="122" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="123" fillId="123" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="124" fillId="124" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="116" fillId="116" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="117" fillId="117" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="118" fillId="118" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="119" fillId="119" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="120" fillId="120" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="121" fillId="121" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="122" fillId="122" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="123" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="125" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="124" fillId="124" borderId="122" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="166" fontId="126" fillId="126" borderId="125" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="127" fillId="127" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="128" fillId="128" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="129" fillId="129" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="130" fillId="130" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="131" fillId="131" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="132" fillId="132" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="133" fillId="133" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="125" fillId="125" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="126" fillId="126" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="127" fillId="127" borderId="125" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="128" fillId="128" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="129" fillId="129" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="130" fillId="130" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="131" fillId="131" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="132" borderId="130" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="134" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="133" fillId="133" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="135" fillId="135" borderId="134" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="136" fillId="136" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="137" fillId="137" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="138" fillId="138" borderId="137" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="139" fillId="139" borderId="138" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="140" fillId="140" borderId="139" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="141" fillId="141" borderId="140" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="142" fillId="142" borderId="141" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="134" fillId="134" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="135" fillId="135" borderId="133" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="136" fillId="136" borderId="134" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="137" fillId="137" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="138" fillId="138" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="139" fillId="139" borderId="137" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="140" fillId="140" borderId="138" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="141" borderId="139" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="143" borderId="142" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="142" fillId="142" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="166" fontId="144" fillId="144" borderId="143" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="145" fillId="145" borderId="144" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="146" fillId="146" borderId="145" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="147" fillId="147" borderId="146" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="148" fillId="148" borderId="147" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="149" fillId="149" borderId="148" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="150" fillId="150" borderId="149" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="151" fillId="151" borderId="150" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="143" fillId="143" borderId="141" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="144" fillId="144" borderId="142" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="145" fillId="145" borderId="143" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="146" fillId="146" borderId="144" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="147" fillId="147" borderId="145" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="148" fillId="148" borderId="146" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="149" fillId="149" borderId="147" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="150" borderId="148" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="152" borderId="151" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="151" fillId="151" borderId="149" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="153" fillId="153" borderId="152" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="154" fillId="154" borderId="153" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="155" fillId="155" borderId="154" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="156" fillId="156" borderId="155" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="157" fillId="157" borderId="156" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="158" fillId="158" borderId="157" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="159" fillId="159" borderId="158" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="160" fillId="160" borderId="159" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="152" fillId="152" borderId="150" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="153" fillId="153" borderId="151" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="154" fillId="154" borderId="152" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="155" fillId="155" borderId="153" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="156" fillId="156" borderId="154" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="157" fillId="157" borderId="155" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="158" fillId="158" borderId="156" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="159" borderId="157" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="161" borderId="160" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="160" fillId="160" borderId="158" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="162" fillId="162" borderId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="163" fillId="163" borderId="162" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="164" fillId="164" borderId="163" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="165" fillId="165" borderId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="166" fillId="166" borderId="165" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="167" fillId="167" borderId="166" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="168" fillId="168" borderId="167" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="169" fillId="169" borderId="168" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="161" fillId="161" borderId="159" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="162" fillId="162" borderId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="163" fillId="163" borderId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="164" fillId="164" borderId="162" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="165" fillId="165" borderId="163" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="166" fillId="166" borderId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="167" fillId="167" borderId="165" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="168" borderId="166" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="170" borderId="169" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="169" fillId="169" borderId="167" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="171" fillId="171" borderId="170" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="172" fillId="172" borderId="171" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="173" fillId="173" borderId="172" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="174" fillId="174" borderId="173" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="175" fillId="175" borderId="174" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="176" fillId="176" borderId="175" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="177" fillId="177" borderId="176" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="178" fillId="178" borderId="177" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="170" fillId="170" borderId="168" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="171" fillId="171" borderId="169" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="172" fillId="172" borderId="170" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="173" fillId="173" borderId="171" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="174" fillId="174" borderId="172" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="175" fillId="175" borderId="173" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="176" fillId="176" borderId="174" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="177" borderId="175" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="179" fillId="179" borderId="178" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="178" fillId="178" borderId="176" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="180" fillId="180" borderId="179" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="181" fillId="181" borderId="180" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="182" fillId="182" borderId="181" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="183" fillId="183" borderId="182" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="184" fillId="184" borderId="183" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="185" fillId="185" borderId="184" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="186" fillId="186" borderId="185" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="187" fillId="187" borderId="186" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="179" fillId="179" borderId="177" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="180" fillId="180" borderId="178" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="181" fillId="181" borderId="179" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="182" fillId="182" borderId="180" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="183" fillId="183" borderId="181" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="184" fillId="184" borderId="182" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="185" fillId="185" borderId="183" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="186" borderId="184" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="188" fillId="188" borderId="187" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="187" fillId="187" borderId="185" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="189" fillId="189" borderId="188" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="190" fillId="190" borderId="189" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="191" fillId="191" borderId="190" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="192" fillId="192" borderId="191" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="193" fillId="193" borderId="192" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="194" fillId="194" borderId="193" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="195" fillId="195" borderId="194" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="196" fillId="196" borderId="195" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="188" fillId="188" borderId="186" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="189" fillId="189" borderId="187" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="190" fillId="190" borderId="188" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="191" fillId="191" borderId="189" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="192" fillId="192" borderId="190" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="193" fillId="193" borderId="191" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="194" fillId="194" borderId="192" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="195" borderId="193" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="197" borderId="196" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="196" fillId="196" borderId="194" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="198" fillId="198" borderId="197" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="199" fillId="199" borderId="198" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="200" fillId="200" borderId="199" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="201" fillId="201" borderId="200" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="202" fillId="202" borderId="201" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="203" fillId="203" borderId="202" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="204" fillId="204" borderId="203" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="205" fillId="205" borderId="204" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="197" fillId="197" borderId="195" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="198" fillId="198" borderId="196" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="199" fillId="199" borderId="197" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="200" fillId="200" borderId="198" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="201" fillId="201" borderId="199" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="202" fillId="202" borderId="200" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="203" fillId="203" borderId="201" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="204" borderId="202" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="206" borderId="205" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="205" fillId="205" borderId="203" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="207" fillId="207" borderId="206" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="208" fillId="208" borderId="207" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="209" fillId="209" borderId="208" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="210" fillId="210" borderId="209" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="211" fillId="211" borderId="210" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="212" fillId="212" borderId="211" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="213" fillId="213" borderId="212" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="214" fillId="214" borderId="213" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="206" fillId="206" borderId="204" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="207" fillId="207" borderId="205" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="208" fillId="208" borderId="206" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="209" fillId="209" borderId="207" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="210" fillId="210" borderId="208" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="211" fillId="211" borderId="209" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="212" fillId="212" borderId="210" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="213" borderId="211" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="215" fillId="215" borderId="214" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="214" fillId="214" borderId="212" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="216" fillId="216" borderId="215" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="217" fillId="217" borderId="216" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="218" fillId="218" borderId="217" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="219" fillId="219" borderId="218" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="220" fillId="220" borderId="219" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="221" fillId="221" borderId="220" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="222" fillId="222" borderId="221" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="223" fillId="223" borderId="222" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="215" fillId="215" borderId="213" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="216" fillId="216" borderId="214" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="217" fillId="217" borderId="215" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="218" fillId="218" borderId="216" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="219" fillId="219" borderId="217" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="220" fillId="220" borderId="218" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="221" fillId="221" borderId="219" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="222" borderId="220" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="224" fillId="224" borderId="223" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="223" fillId="223" borderId="221" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="225" fillId="225" borderId="224" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="226" fillId="226" borderId="225" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="227" fillId="227" borderId="226" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="228" fillId="228" borderId="227" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="229" fillId="229" borderId="228" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="230" fillId="230" borderId="229" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="231" fillId="231" borderId="230" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="232" fillId="232" borderId="231" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="224" fillId="224" borderId="222" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="225" fillId="225" borderId="223" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="226" fillId="226" borderId="224" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="227" fillId="227" borderId="225" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="228" fillId="228" borderId="226" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="229" fillId="229" borderId="227" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="230" fillId="230" borderId="228" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="231" borderId="229" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="233" fillId="233" borderId="232" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="232" fillId="232" borderId="230" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="234" fillId="234" borderId="233" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="235" fillId="235" borderId="234" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="236" fillId="236" borderId="235" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="237" fillId="237" borderId="236" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="238" fillId="238" borderId="237" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="239" fillId="239" borderId="238" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="240" fillId="240" borderId="239" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="241" fillId="241" borderId="240" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="233" fillId="233" borderId="231" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="234" fillId="234" borderId="232" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="235" fillId="235" borderId="233" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="236" fillId="236" borderId="234" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="237" fillId="237" borderId="235" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="238" fillId="238" borderId="236" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="239" fillId="239" borderId="237" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="240" borderId="238" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="242" fillId="242" borderId="241" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="241" fillId="241" borderId="239" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="243" fillId="243" borderId="242" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="244" fillId="244" borderId="243" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="245" fillId="245" borderId="244" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="246" fillId="246" borderId="245" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="247" fillId="247" borderId="246" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="248" fillId="248" borderId="247" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="249" fillId="249" borderId="248" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="250" fillId="250" borderId="249" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="242" fillId="242" borderId="240" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="243" fillId="243" borderId="241" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="244" fillId="244" borderId="242" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="245" fillId="245" borderId="243" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="246" fillId="246" borderId="244" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="247" fillId="247" borderId="245" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="248" fillId="248" borderId="246" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="249" borderId="247" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="251" fillId="251" borderId="250" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="250" fillId="250" borderId="248" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="252" fillId="252" borderId="251" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="253" fillId="253" borderId="252" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="254" fillId="254" borderId="253" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="255" fillId="255" borderId="254" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="256" fillId="256" borderId="255" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="257" fillId="257" borderId="256" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="258" fillId="258" borderId="257" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="259" fillId="259" borderId="258" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="251" fillId="251" borderId="249" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="252" fillId="252" borderId="250" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="253" fillId="253" borderId="251" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="254" fillId="254" borderId="252" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="255" fillId="255" borderId="253" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="256" fillId="256" borderId="254" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="257" fillId="257" borderId="255" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="258" borderId="256" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="260" fillId="260" borderId="259" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="259" fillId="259" borderId="257" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="261" fillId="261" borderId="260" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="262" fillId="262" borderId="261" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="263" fillId="263" borderId="262" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="264" fillId="264" borderId="263" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="265" fillId="265" borderId="264" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="266" fillId="266" borderId="265" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="267" fillId="267" borderId="266" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="268" fillId="268" borderId="267" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="260" fillId="260" borderId="258" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="261" fillId="261" borderId="259" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="262" fillId="262" borderId="260" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="263" fillId="263" borderId="261" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="264" fillId="264" borderId="262" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="265" fillId="265" borderId="263" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="266" fillId="266" borderId="264" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="267" borderId="265" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="269" borderId="268" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="268" fillId="268" borderId="266" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="270" fillId="270" borderId="269" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="271" fillId="271" borderId="270" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="272" fillId="272" borderId="271" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="273" fillId="273" borderId="272" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="274" fillId="274" borderId="273" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="275" fillId="275" borderId="274" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="276" fillId="276" borderId="275" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="277" fillId="277" borderId="276" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="269" fillId="269" borderId="267" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="270" fillId="270" borderId="268" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="271" fillId="271" borderId="269" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="272" fillId="272" borderId="270" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="273" fillId="273" borderId="271" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="274" fillId="274" borderId="272" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="275" fillId="275" borderId="273" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="276" borderId="274" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="278" fillId="278" borderId="277" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="277" fillId="277" borderId="275" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="279" fillId="279" borderId="278" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="280" fillId="280" borderId="279" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="281" fillId="281" borderId="280" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="282" fillId="282" borderId="281" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="283" fillId="283" borderId="282" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="284" fillId="284" borderId="283" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="285" fillId="285" borderId="284" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="286" fillId="286" borderId="285" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="278" fillId="278" borderId="276" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="279" fillId="279" borderId="277" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="280" fillId="280" borderId="278" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="281" fillId="281" borderId="279" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="282" fillId="282" borderId="280" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="283" fillId="283" borderId="281" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="284" fillId="284" borderId="282" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="285" borderId="283" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="287" fillId="287" borderId="286" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="286" fillId="286" borderId="284" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="288" fillId="288" borderId="287" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="289" fillId="289" borderId="288" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="290" fillId="290" borderId="289" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="291" fillId="291" borderId="290" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="292" fillId="292" borderId="291" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="293" fillId="293" borderId="292" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="294" fillId="294" borderId="293" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="295" fillId="295" borderId="294" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="287" fillId="287" borderId="285" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="288" fillId="288" borderId="286" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="289" fillId="289" borderId="287" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="290" fillId="290" borderId="288" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="291" fillId="291" borderId="289" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="292" fillId="292" borderId="290" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="293" fillId="293" borderId="291" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="294" borderId="292" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="296" fillId="296" borderId="295" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="295" fillId="295" borderId="293" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="297" fillId="297" borderId="296" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="298" fillId="298" borderId="297" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="299" fillId="299" borderId="298" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="300" fillId="300" borderId="299" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="301" fillId="301" borderId="300" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="302" fillId="302" borderId="301" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="303" fillId="303" borderId="302" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="304" fillId="304" borderId="303" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="296" fillId="296" borderId="294" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="297" fillId="297" borderId="295" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="298" fillId="298" borderId="296" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="299" fillId="299" borderId="297" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="300" fillId="300" borderId="298" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="301" fillId="301" borderId="299" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="302" fillId="302" borderId="300" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="303" borderId="301" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="305" fillId="305" borderId="304" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="304" fillId="304" borderId="302" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="306" fillId="306" borderId="305" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="307" fillId="307" borderId="306" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="308" fillId="308" borderId="307" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="309" fillId="309" borderId="308" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="310" fillId="310" borderId="309" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="311" fillId="311" borderId="310" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="312" fillId="312" borderId="311" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="313" fillId="313" borderId="312" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="305" fillId="305" borderId="303" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="306" fillId="306" borderId="304" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="307" fillId="307" borderId="305" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="308" fillId="308" borderId="306" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="309" fillId="309" borderId="307" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="310" fillId="310" borderId="308" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="311" fillId="311" borderId="309" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="312" borderId="310" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="314" fillId="314" borderId="313" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="313" fillId="313" borderId="311" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="315" fillId="315" borderId="314" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="316" fillId="316" borderId="315" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="317" fillId="317" borderId="316" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="318" fillId="318" borderId="317" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="319" fillId="319" borderId="318" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="320" fillId="320" borderId="319" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="321" fillId="321" borderId="320" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="322" fillId="322" borderId="321" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="314" fillId="314" borderId="312" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="315" fillId="315" borderId="313" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="316" fillId="316" borderId="314" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="317" fillId="317" borderId="315" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="318" fillId="318" borderId="316" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="319" fillId="319" borderId="317" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="320" fillId="320" borderId="318" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="321" borderId="319" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="323" borderId="322" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="322" fillId="322" borderId="320" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="324" fillId="324" borderId="323" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="325" fillId="325" borderId="324" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="326" fillId="326" borderId="325" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="327" fillId="327" borderId="326" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="328" fillId="328" borderId="327" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="329" fillId="329" borderId="328" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="330" fillId="330" borderId="329" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="331" fillId="331" borderId="330" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="323" fillId="323" borderId="321" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="324" fillId="324" borderId="322" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="325" fillId="325" borderId="323" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="326" fillId="326" borderId="324" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="327" fillId="327" borderId="325" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="328" fillId="328" borderId="326" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="329" fillId="329" borderId="327" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="330" borderId="328" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="332" fillId="332" borderId="331" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="331" fillId="331" borderId="329" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="333" fillId="333" borderId="332" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="334" fillId="334" borderId="333" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="335" fillId="335" borderId="334" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="336" fillId="336" borderId="335" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="337" fillId="337" borderId="336" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="338" fillId="338" borderId="337" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="339" fillId="339" borderId="338" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="340" fillId="340" borderId="339" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="332" fillId="332" borderId="330" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="333" fillId="333" borderId="331" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="334" fillId="334" borderId="332" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="335" fillId="335" borderId="333" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="336" fillId="336" borderId="334" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="337" fillId="337" borderId="335" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="338" fillId="338" borderId="336" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="339" borderId="337" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="341" fillId="341" borderId="340" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="340" fillId="340" borderId="338" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="342" fillId="342" borderId="341" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="343" fillId="343" borderId="342" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="344" fillId="344" borderId="343" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="345" fillId="345" borderId="344" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="346" fillId="346" borderId="345" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="347" fillId="347" borderId="346" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="348" fillId="348" borderId="347" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="349" fillId="349" borderId="348" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="341" fillId="341" borderId="339" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="342" fillId="342" borderId="340" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="343" fillId="343" borderId="341" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="344" fillId="344" borderId="342" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="345" fillId="345" borderId="343" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="346" fillId="346" borderId="344" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="347" fillId="347" borderId="345" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="348" borderId="346" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="350" fillId="350" borderId="349" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="349" fillId="349" borderId="347" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="351" fillId="351" borderId="350" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="352" fillId="352" borderId="351" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="353" fillId="353" borderId="352" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="354" fillId="354" borderId="353" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="355" fillId="355" borderId="354" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="356" fillId="356" borderId="355" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="357" fillId="357" borderId="356" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="358" fillId="358" borderId="357" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="350" fillId="350" borderId="348" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="351" fillId="351" borderId="349" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="352" fillId="352" borderId="350" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="353" fillId="353" borderId="351" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="354" fillId="354" borderId="352" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="355" fillId="355" borderId="353" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="356" fillId="356" borderId="354" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="357" borderId="355" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="359" fillId="359" borderId="358" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="358" fillId="358" borderId="356" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="360" fillId="360" borderId="359" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="361" fillId="361" borderId="360" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="362" fillId="362" borderId="361" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="363" fillId="363" borderId="362" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="364" fillId="367" borderId="366" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="359" fillId="359" borderId="357" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="360" fillId="360" borderId="358" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="361" fillId="361" borderId="359" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="362" fillId="362" borderId="360" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="366" borderId="364" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="365" fillId="368" borderId="367" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="364" fillId="367" borderId="365" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="366" fillId="369" borderId="368" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="367" fillId="370" borderId="369" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="368" fillId="371" borderId="370" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="369" fillId="372" borderId="371" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="370" fillId="373" borderId="372" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="371" fillId="374" borderId="373" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="372" fillId="376" borderId="375" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="365" fillId="368" borderId="366" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="366" fillId="369" borderId="367" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="367" fillId="370" borderId="368" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="368" fillId="371" borderId="369" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="369" fillId="372" borderId="370" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="370" fillId="373" borderId="371" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="375" borderId="373" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="373" fillId="377" borderId="376" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="372" fillId="376" borderId="374" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="374" fillId="378" borderId="377" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="375" fillId="379" borderId="378" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="376" fillId="380" borderId="379" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="377" fillId="381" borderId="380" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="378" fillId="382" borderId="381" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="379" fillId="385" borderId="384" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="373" fillId="377" borderId="375" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="374" fillId="378" borderId="376" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="375" fillId="379" borderId="377" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="376" fillId="380" borderId="378" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="377" fillId="381" borderId="379" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="384" borderId="382" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="380" fillId="386" borderId="385" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="379" fillId="385" borderId="383" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="381" fillId="387" borderId="386" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="382" fillId="388" borderId="387" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="383" fillId="389" borderId="388" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="384" fillId="390" borderId="389" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="385" fillId="391" borderId="390" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="386" fillId="394" borderId="393" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="380" fillId="386" borderId="384" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="381" fillId="387" borderId="385" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="382" fillId="388" borderId="386" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="383" fillId="389" borderId="387" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="384" fillId="390" borderId="388" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="393" borderId="391" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="387" fillId="395" borderId="394" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="386" fillId="394" borderId="392" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="388" fillId="396" borderId="395" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="389" fillId="397" borderId="396" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="390" fillId="398" borderId="397" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="391" fillId="403" borderId="402" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="387" fillId="395" borderId="393" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="388" fillId="396" borderId="394" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="389" fillId="397" borderId="395" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="402" borderId="400" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="392" fillId="404" borderId="403" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="391" fillId="403" borderId="401" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="393" fillId="405" borderId="404" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="394" fillId="406" borderId="405" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="395" fillId="407" borderId="406" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="396" fillId="408" borderId="407" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="397" fillId="409" borderId="408" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="398" fillId="410" borderId="409" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="399" fillId="411" borderId="410" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="400" fillId="412" borderId="411" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="392" fillId="404" borderId="402" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="393" fillId="405" borderId="403" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="394" fillId="406" borderId="404" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="395" fillId="407" borderId="405" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="396" fillId="408" borderId="406" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="397" fillId="409" borderId="407" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="398" fillId="410" borderId="408" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="411" borderId="409" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="401" fillId="414" borderId="413" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="402" fillId="415" borderId="414" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="403" fillId="416" borderId="415" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="404" fillId="417" borderId="416" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="405" fillId="418" borderId="417" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="406" fillId="419" borderId="418" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="407" fillId="421" borderId="420" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="400" fillId="413" borderId="411" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="401" fillId="414" borderId="412" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="402" fillId="415" borderId="413" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="403" fillId="416" borderId="414" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="404" fillId="417" borderId="415" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="405" fillId="418" borderId="416" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="420" borderId="418" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="408" fillId="422" borderId="421" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="407" fillId="421" borderId="419" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="409" fillId="423" borderId="422" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="408" fillId="422" borderId="420" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="410" fillId="424" borderId="423" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="409" fillId="423" borderId="421" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="411" fillId="425" borderId="424" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="410" fillId="424" borderId="422" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="412" fillId="426" borderId="425" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="411" fillId="425" borderId="423" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="413" fillId="427" borderId="426" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="412" fillId="426" borderId="424" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="414" fillId="428" borderId="427" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="413" fillId="427" borderId="425" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="415" fillId="429" borderId="428" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="414" fillId="428" borderId="426" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="416" fillId="430" borderId="429" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="415" fillId="429" borderId="427" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="417" fillId="431" borderId="430" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="416" fillId="430" borderId="428" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="418" fillId="432" borderId="431" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="417" fillId="431" borderId="429" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="419" fillId="433" borderId="432" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="418" fillId="432" borderId="430" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="420" fillId="434" borderId="433" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="419" fillId="433" borderId="431" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="421" fillId="435" borderId="434" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="420" fillId="434" borderId="432" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="413" borderId="412" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="412" borderId="410" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="399" borderId="398" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="400" borderId="399" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="401" borderId="400" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="402" borderId="401" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="420" borderId="419" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="392" borderId="391" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="393" borderId="392" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="383" borderId="382" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="384" borderId="383" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="375" borderId="374" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="366" borderId="365" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="365" borderId="364" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="364" borderId="363" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="398" borderId="396" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="399" borderId="397" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="400" borderId="398" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="401" borderId="399" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="419" borderId="417" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="391" borderId="389" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="392" borderId="390" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="382" borderId="380" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="383" borderId="381" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="374" borderId="372" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="365" borderId="363" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="364" borderId="362" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="363" borderId="361" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="433" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="434" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13694,7 +13680,7 @@
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13707,9 +13693,7 @@
       <c r="A1" s="433" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="434" t="s">
-        <v>1</v>
-      </c>
+      <c r="B1" s="434"/>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
